--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26980" windowHeight="13160"/>
+    <workbookView windowWidth="30820" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>INTO中国社区首批区县节点统计表（选择重复）</t>
   </si>
@@ -49,28 +49,16 @@
     <t>念与北诗</t>
   </si>
   <si>
-    <t>成都市 温江区</t>
-  </si>
-  <si>
-    <t>0xa35C425Da9162CDA42afDEDeA3938a2b3e057d94</t>
-  </si>
-  <si>
-    <t>二线区县节点</t>
+    <t>临沂市 兰山区</t>
+  </si>
+  <si>
+    <t>0x2D2b5658B27F4fEDCe6a64381cCd7ed143463630</t>
+  </si>
+  <si>
+    <t>一线区县节点</t>
   </si>
   <si>
     <t>600U+3000TOX</t>
-  </si>
-  <si>
-    <t>成都市 武侯区</t>
-  </si>
-  <si>
-    <t>0xd50c34D0893859205872816bDe8A28DF1eC8E232</t>
-  </si>
-  <si>
-    <t>遂宁市 船山区</t>
-  </si>
-  <si>
-    <t>0x25A90c677af4F431202cAf3e88D4F6cB71329Ca3</t>
   </si>
 </sst>
 </file>
@@ -245,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +614,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,16 +638,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -674,89 +656,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,14 +752,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,19 +1128,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.79464285714286" style="1"/>
     <col min="2" max="2" width="10.7946428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.2946428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.2232142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.1071428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.9017857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.4017857142857" style="1" customWidth="1"/>
@@ -1178,7 +1157,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="7"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="40.05" customHeight="1" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1225,56 +1204,28 @@
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
+      <c r="H3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C65143">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C64151">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65143">
+  <conditionalFormatting sqref="D2:D64151">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D65143">
+  <conditionalFormatting sqref="D4:D64151">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D6:D65143">
+  <conditionalFormatting sqref="D2 D4:D64151">
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30820" windowHeight="13160"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>INTO中国社区首批区县节点统计表（选择重复）</t>
   </si>
@@ -43,22 +43,52 @@
     <t>需要查询该钱包网体下业绩</t>
   </si>
   <si>
-    <t>志同社区</t>
-  </si>
-  <si>
-    <t>念与北诗</t>
-  </si>
-  <si>
-    <t>临沂市 兰山区</t>
-  </si>
-  <si>
-    <t>0x2D2b5658B27F4fEDCe6a64381cCd7ed143463630</t>
+    <t>丽水市 莲都区</t>
+  </si>
+  <si>
+    <t>0x9d8213d2e8b3277c970e0d4dc99f2202c6e75919</t>
+  </si>
+  <si>
+    <t>二线区县节点</t>
+  </si>
+  <si>
+    <t>金华市 磐安县</t>
+  </si>
+  <si>
+    <t>0x89Aa0aCbdc006383fC26Cb84Ad5488CC6283217E</t>
   </si>
   <si>
     <t>一线区县节点</t>
   </si>
   <si>
-    <t>600U+3000TOX</t>
+    <t>黔东南苗族侗族自治州 凯里市</t>
+  </si>
+  <si>
+    <t>0xEFE316B9dA1d06e66140e0A58E03135F37A438Bd</t>
+  </si>
+  <si>
+    <t>徐州市 丰县</t>
+  </si>
+  <si>
+    <t>0x5448190f2ed258FF33458c5202Bd7dC9Ec9b8386</t>
+  </si>
+  <si>
+    <t>辽阳市 文圣区</t>
+  </si>
+  <si>
+    <t>0xcEee5109cD4Ddbcd112169C782a9b6b0Ed4AB44D</t>
+  </si>
+  <si>
+    <t>重庆市 江北区</t>
+  </si>
+  <si>
+    <t>0x61088F53Ab5Bd392e2832afA91a5D108382D79B8</t>
+  </si>
+  <si>
+    <t>杭州市 临平区</t>
+  </si>
+  <si>
+    <t>0x61591099C34E3717E923D934F73b712AE35F9ED1</t>
   </si>
 </sst>
 </file>
@@ -738,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,12 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.79464285714286" style="1"/>
     <col min="2" max="2" width="10.7946428571429" style="1" customWidth="1"/>
@@ -1185,48 +1209,159 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C64151">
+  <conditionalFormatting sqref="C2:C64149">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D64151">
+  <conditionalFormatting sqref="D2:D64149">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D64151">
+  <conditionalFormatting sqref="D3:D64149">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D4:D64151">
-    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INTO中国社区首批区县节点统计表（选择重复）</t>
   </si>
@@ -43,52 +43,13 @@
     <t>需要查询该钱包网体下业绩</t>
   </si>
   <si>
-    <t>丽水市 莲都区</t>
+    <t>六安市</t>
   </si>
   <si>
-    <t>0x9d8213d2e8b3277c970e0d4dc99f2202c6e75919</t>
+    <t>0x391b44bb82060DB03528a175C99B53e0514098fB</t>
   </si>
   <si>
-    <t>二线区县节点</t>
-  </si>
-  <si>
-    <t>金华市 磐安县</t>
-  </si>
-  <si>
-    <t>0x89Aa0aCbdc006383fC26Cb84Ad5488CC6283217E</t>
-  </si>
-  <si>
-    <t>一线区县节点</t>
-  </si>
-  <si>
-    <t>黔东南苗族侗族自治州 凯里市</t>
-  </si>
-  <si>
-    <t>0xEFE316B9dA1d06e66140e0A58E03135F37A438Bd</t>
-  </si>
-  <si>
-    <t>徐州市 丰县</t>
-  </si>
-  <si>
-    <t>0x5448190f2ed258FF33458c5202Bd7dC9Ec9b8386</t>
-  </si>
-  <si>
-    <t>辽阳市 文圣区</t>
-  </si>
-  <si>
-    <t>0xcEee5109cD4Ddbcd112169C782a9b6b0Ed4AB44D</t>
-  </si>
-  <si>
-    <t>重庆市 江北区</t>
-  </si>
-  <si>
-    <t>0x61088F53Ab5Bd392e2832afA91a5D108382D79B8</t>
-  </si>
-  <si>
-    <t>杭州市 临平区</t>
-  </si>
-  <si>
-    <t>0x61591099C34E3717E923D934F73b712AE35F9ED1</t>
+    <t>三线城市节点</t>
   </si>
 </sst>
 </file>
@@ -1152,13 +1113,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.79464285714286" style="1"/>
     <col min="2" max="2" width="10.7946428571429" style="1" customWidth="1"/>
@@ -1229,138 +1190,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C64149">
+  <conditionalFormatting sqref="C2:C64143">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D64149">
+  <conditionalFormatting sqref="D2:D64143">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D64149">
+  <conditionalFormatting sqref="D3:D64143">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>INTO中国社区首批区县节点统计表（选择重复）</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>所属社区</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>所选区县节点名称</t>
   </si>
@@ -37,19 +25,34 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t>缴纳金额</t>
-  </si>
-  <si>
-    <t>需要查询该钱包网体下业绩</t>
-  </si>
-  <si>
-    <t>六安市</t>
-  </si>
-  <si>
-    <t>0x391b44bb82060DB03528a175C99B53e0514098fB</t>
-  </si>
-  <si>
-    <t>三线城市节点</t>
+    <t>常州市 武进区</t>
+  </si>
+  <si>
+    <t>0x57c138e70403d8f86510c2b668efe8072ac42ad0</t>
+  </si>
+  <si>
+    <t>一线区县节点</t>
+  </si>
+  <si>
+    <t>德阳市 什邡市</t>
+  </si>
+  <si>
+    <t>0xf5476D45aB650057304F2df8F637a97561d33f1D</t>
+  </si>
+  <si>
+    <t>德阳市 广汉市</t>
+  </si>
+  <si>
+    <t>0x5091a43D8B39E4c168eB3943C50553E192928Da5</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>0xccbbe73d588151897466713f6b153b38e89f35b8</t>
+  </si>
+  <si>
+    <t>二线城市节点</t>
   </si>
 </sst>
 </file>
@@ -424,25 +427,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,19 +450,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -605,7 +582,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,34 +594,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,13 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,95 +1084,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.79464285714286" style="1"/>
-    <col min="2" max="2" width="10.7946428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.2946428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.1071428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.9017857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.4017857142857" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.79464285714286" style="1"/>
+    <col min="1" max="1" width="33.2946428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1071428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="16380" width="8.79464285714286" style="1"/>
+    <col min="16381" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.05" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="40.05" customHeight="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="40.05" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="40.05" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C64143">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D64143">
+  <conditionalFormatting sqref="A2:A64143">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D64143">
+  <conditionalFormatting sqref="A3:A64143">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28000" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>所选区县节点名称</t>
   </si>
@@ -25,31 +25,19 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t>常州市 武进区</t>
+    <t>昆明市</t>
   </si>
   <si>
-    <t>0x57c138e70403d8f86510c2b668efe8072ac42ad0</t>
+    <t>0x9B9C27DC72941bb79BE1fFD2b091dA4A633eC89F</t>
   </si>
   <si>
-    <t>一线区县节点</t>
+    <t>一线城市节点</t>
   </si>
   <si>
-    <t>德阳市 什邡市</t>
+    <t>福州市</t>
   </si>
   <si>
-    <t>0xf5476D45aB650057304F2df8F637a97561d33f1D</t>
-  </si>
-  <si>
-    <t>德阳市 广汉市</t>
-  </si>
-  <si>
-    <t>0x5091a43D8B39E4c168eB3943C50553E192928Da5</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>0xccbbe73d588151897466713f6b153b38e89f35b8</t>
+    <t>0x781B7dB879088d78D50d9183fd8B5230aBe20Bd8</t>
   </si>
   <si>
     <t>二线城市节点</t>
@@ -1084,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.2946428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1071428571429" style="1" customWidth="1"/>
@@ -1134,40 +1122,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A64143">
+  <conditionalFormatting sqref="A2:A64141">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A64143">
+  <conditionalFormatting sqref="A3:A64141">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>所选区县节点名称</t>
   </si>
@@ -25,22 +25,37 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t>昆明市</t>
-  </si>
-  <si>
-    <t>0x9B9C27DC72941bb79BE1fFD2b091dA4A633eC89F</t>
-  </si>
-  <si>
-    <t>一线城市节点</t>
-  </si>
-  <si>
-    <t>福州市</t>
-  </si>
-  <si>
-    <t>0x781B7dB879088d78D50d9183fd8B5230aBe20Bd8</t>
-  </si>
-  <si>
-    <t>二线城市节点</t>
+    <t xml:space="preserve">资阳市 雁江区 </t>
+  </si>
+  <si>
+    <t>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</t>
+  </si>
+  <si>
+    <t>二线区县节点</t>
+  </si>
+  <si>
+    <t>厦门市 湖里区</t>
+  </si>
+  <si>
+    <t>0x9463C6338b13d87dc99D442b43882076221d2269</t>
+  </si>
+  <si>
+    <t>一线区县节点</t>
+  </si>
+  <si>
+    <t>三明市</t>
+  </si>
+  <si>
+    <t>0x74EFB79Ca748f0143c4835785B0699CC308Efed4</t>
+  </si>
+  <si>
+    <t>三线城市节点</t>
+  </si>
+  <si>
+    <t>成都市 郫都区</t>
+  </si>
+  <si>
+    <t>0x0c67e1138385f1234cf442a2a310096f2af35a04</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.2946428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1071428571429" style="1" customWidth="1"/>
@@ -1122,6 +1137,28 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>所选区县节点名称</t>
   </si>
@@ -25,34 +25,49 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t>常州市 武进区</t>
-  </si>
-  <si>
-    <t>0x57c138e70403d8f86510c2b668efe8072ac42ad0</t>
+    <t>昆明市 盘龙区</t>
+  </si>
+  <si>
+    <t>0xC336b0eFb4eb51264e42F3e0A11554340F289f38</t>
   </si>
   <si>
     <t>一线区县节点</t>
   </si>
   <si>
-    <t>德阳市 什邡市</t>
-  </si>
-  <si>
-    <t>0xf5476D45aB650057304F2df8F637a97561d33f1D</t>
-  </si>
-  <si>
-    <t>德阳市 广汉市</t>
-  </si>
-  <si>
-    <t>0x5091a43D8B39E4c168eB3943C50553E192928Da5</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>0xccbbe73d588151897466713f6b153b38e89f35b8</t>
-  </si>
-  <si>
-    <t>二线城市节点</t>
+    <t>宿州市</t>
+  </si>
+  <si>
+    <t>0x5FD663A24FbfDdc15d1760BE09B4bc2d5d66451C</t>
+  </si>
+  <si>
+    <t>三线城市节点</t>
+  </si>
+  <si>
+    <t>乐山市 市中区</t>
+  </si>
+  <si>
+    <t>0xB973dA4823b08A2d05D9f6E6d4D83BeFEDDAd765</t>
+  </si>
+  <si>
+    <t>二线区县节点</t>
+  </si>
+  <si>
+    <t>十堰市 郧阳区</t>
+  </si>
+  <si>
+    <t>0xDAD230a0e2e7c6aee1439Bee55295EdD5Dbb49fc</t>
+  </si>
+  <si>
+    <t>防城港市 港口区</t>
+  </si>
+  <si>
+    <t>0xBE38E3602fFCC85AE9C0ce4e92B0e781f56e2529</t>
+  </si>
+  <si>
+    <t>呼和浩特市 新城区</t>
+  </si>
+  <si>
+    <t>0x7714Ee4bbAC509bFbe21AE22dC2286Ad0bA1fAC9</t>
   </si>
 </sst>
 </file>
@@ -65,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -83,6 +98,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -227,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,55 +603,52 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,74 +663,77 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,6 +743,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.2946428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1071428571429" style="1" customWidth="1"/>
@@ -1116,58 +1149,80 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A64143">
+  <conditionalFormatting sqref="A2:A64141">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A64143">
+  <conditionalFormatting sqref="A3:A64141">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/assets/区县节点报名表2.xlsx
+++ b/server/assets/区县节点报名表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13160"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>所选区县节点名称</t>
   </si>
@@ -25,37 +25,22 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t xml:space="preserve">资阳市 雁江区 </t>
+    <t>泰州市</t>
   </si>
   <si>
-    <t>0x8595485FE2e08cAbE52d591d356b8cFa4AdE6cb2</t>
-  </si>
-  <si>
-    <t>二线区县节点</t>
-  </si>
-  <si>
-    <t>厦门市 湖里区</t>
-  </si>
-  <si>
-    <t>0x9463C6338b13d87dc99D442b43882076221d2269</t>
-  </si>
-  <si>
-    <t>一线区县节点</t>
-  </si>
-  <si>
-    <t>三明市</t>
-  </si>
-  <si>
-    <t>0x74EFB79Ca748f0143c4835785B0699CC308Efed4</t>
+    <t>0x8E36fb61627287f9cC08105c5eA578989a05A2C3</t>
   </si>
   <si>
     <t>三线城市节点</t>
   </si>
   <si>
-    <t>成都市 郫都区</t>
+    <t>金华市</t>
   </si>
   <si>
-    <t>0x0c67e1138385f1234cf442a2a310096f2af35a04</t>
+    <t>0x0d72cb4c3186ae8d572bfffece4c639e52794344</t>
+  </si>
+  <si>
+    <t>二线城市节点</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.2946428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1071428571429" style="1" customWidth="1"/>
@@ -1140,37 +1125,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A64141">
+  <conditionalFormatting sqref="A2:A64138">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A64141">
+  <conditionalFormatting sqref="A3:A64138">
     <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
